--- a/medicoes_affinity.xlsx
+++ b/medicoes_affinity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OMP - exec time" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="77">
   <si>
     <t>1 thread</t>
   </si>
@@ -104,6 +104,156 @@
   <si>
     <t>Speedup vs original sequential app for 20 files</t>
   </si>
+  <si>
+    <t>ttH_dilep_omp with specified affinity ("best" configuration)</t>
+  </si>
+  <si>
+    <t>scheduler 10 process witouth affinity</t>
+  </si>
+  <si>
+    <t>scheduler 8 process without affinity</t>
+  </si>
+  <si>
+    <t>scheduler 5 process without affinity</t>
+  </si>
+  <si>
+    <t>scheduler 4 process without affinity</t>
+  </si>
+  <si>
+    <t>scheduler 2 process without affinity</t>
+  </si>
+  <si>
+    <t>9760748.0</t>
+  </si>
+  <si>
+    <t>9267976.0</t>
+  </si>
+  <si>
+    <t>8112165.0</t>
+  </si>
+  <si>
+    <t>9814211.0</t>
+  </si>
+  <si>
+    <t>12046063.0</t>
+  </si>
+  <si>
+    <t>10439405.0</t>
+  </si>
+  <si>
+    <t>9606077.0</t>
+  </si>
+  <si>
+    <t>10432065.0</t>
+  </si>
+  <si>
+    <t>17626975.0</t>
+  </si>
+  <si>
+    <t>13129619.0</t>
+  </si>
+  <si>
+    <t>11401992.0</t>
+  </si>
+  <si>
+    <t>11304235.0</t>
+  </si>
+  <si>
+    <t>25963517.0</t>
+  </si>
+  <si>
+    <t>19405236.0</t>
+  </si>
+  <si>
+    <t>15553670.0</t>
+  </si>
+  <si>
+    <t>15226438.0</t>
+  </si>
+  <si>
+    <t>44284511.0</t>
+  </si>
+  <si>
+    <t>29035347.0</t>
+  </si>
+  <si>
+    <t>21593605.0</t>
+  </si>
+  <si>
+    <t>21545632.0</t>
+  </si>
+  <si>
+    <t>76870035.0</t>
+  </si>
+  <si>
+    <t>48299755.0</t>
+  </si>
+  <si>
+    <t>33597126.0</t>
+  </si>
+  <si>
+    <t>32511036.0</t>
+  </si>
+  <si>
+    <t>137543665.0</t>
+  </si>
+  <si>
+    <t>84757259.0</t>
+  </si>
+  <si>
+    <t>60971815.0</t>
+  </si>
+  <si>
+    <t>52320330.0</t>
+  </si>
+  <si>
+    <t>251473461.0</t>
+  </si>
+  <si>
+    <t>154073344.0</t>
+  </si>
+  <si>
+    <t>103973990.0</t>
+  </si>
+  <si>
+    <t>93040432.0</t>
+  </si>
+  <si>
+    <t>418141874.0</t>
+  </si>
+  <si>
+    <t>267694956.0</t>
+  </si>
+  <si>
+    <t>185619140.0</t>
+  </si>
+  <si>
+    <t>157494613.0</t>
+  </si>
+  <si>
+    <t>537440005.0</t>
+  </si>
+  <si>
+    <t>356048792.0</t>
+  </si>
+  <si>
+    <t>234435205.0</t>
+  </si>
+  <si>
+    <t>215699137.0</t>
+  </si>
+  <si>
+    <t>817455757.0</t>
+  </si>
+  <si>
+    <t>372444531.0</t>
+  </si>
+  <si>
+    <t>345633029.0</t>
+  </si>
+  <si>
+    <t>229876738.0</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +316,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +341,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -267,22 +429,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -326,6 +494,8 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -369,6 +539,8 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1497,11 +1669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044866616"/>
-        <c:axId val="2021346424"/>
+        <c:axId val="2103682616"/>
+        <c:axId val="2103750232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044866616"/>
+        <c:axId val="2103682616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2021346424"/>
+        <c:crossAx val="2103750232"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +1717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2021346424"/>
+        <c:axId val="2103750232"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1583,7 +1755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2044866616"/>
+        <c:crossAx val="2103682616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2737,11 +2909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2046046232"/>
-        <c:axId val="2046039000"/>
+        <c:axId val="2105417928"/>
+        <c:axId val="2105425048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2046046232"/>
+        <c:axId val="2105417928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,18 +2949,19 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046039000"/>
-        <c:crossesAt val="0.5"/>
+        <c:crossAx val="2105425048"/>
+        <c:crossesAt val="0.25"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046039000"/>
+        <c:axId val="2105425048"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
+          <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2819,11 +2992,11 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ?/?" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046046232"/>
+        <c:crossAx val="2105417928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2959,37 +3132,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.397151413044914</c:v>
+                  <c:v>0.525270862015184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46717633540847</c:v>
+                  <c:v>0.597613584195666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.619196869510811</c:v>
+                  <c:v>0.620738319664083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.685810476076974</c:v>
+                  <c:v>0.641772282673317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.840896005479158</c:v>
+                  <c:v>0.847801452258774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.833433063684551</c:v>
+                  <c:v>0.841701277622329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.842713382145176</c:v>
+                  <c:v>0.849235535626889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.865497218732964</c:v>
+                  <c:v>0.865751419634355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.886723797454909</c:v>
+                  <c:v>0.899436743026254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88294330867588</c:v>
+                  <c:v>0.864645165583503</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88413646378231</c:v>
+                  <c:v>0.878121586960772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,37 +3240,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.563918767683951</c:v>
+                  <c:v>0.576880118295773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.678605076242814</c:v>
+                  <c:v>0.734975318827415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.042017191359672</c:v>
+                  <c:v>1.071349462145462</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.166519806157108</c:v>
+                  <c:v>1.254660062332726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.198492962997683</c:v>
+                  <c:v>1.35325896988085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.165551683641576</c:v>
+                  <c:v>1.367378025642052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.308407093030333</c:v>
+                  <c:v>1.498034471536519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.355701918126974</c:v>
+                  <c:v>1.563595089948142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.319570294018779</c:v>
+                  <c:v>1.586384643876894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.351570903729533</c:v>
+                  <c:v>1.612089461883422</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.344872594368762</c:v>
+                  <c:v>1.608647575695302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,37 +3348,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.486118885725143</c:v>
+                  <c:v>0.513150268377178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.764392790712343</c:v>
+                  <c:v>0.830950587577618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.049064855796064</c:v>
+                  <c:v>1.317568918603536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.280483168262282</c:v>
+                  <c:v>1.780749231780072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.709994148039611</c:v>
+                  <c:v>2.130887053569199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.614933167077144</c:v>
+                  <c:v>2.322306729878977</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.773153248015552</c:v>
+                  <c:v>2.526022095455311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.03887710100221</c:v>
+                  <c:v>3.018828666479455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.22511184168619</c:v>
+                  <c:v>3.157652349606535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0786289925517</c:v>
+                  <c:v>3.22030605951509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.092517129138931</c:v>
+                  <c:v>3.277720400211251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3283,37 +3456,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.603643475197598</c:v>
+                  <c:v>0.650209047984822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.807284598984733</c:v>
+                  <c:v>0.899708835668551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.264671228626717</c:v>
+                  <c:v>1.506333800645861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.520493511400872</c:v>
+                  <c:v>1.951004746705194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.731525940497895</c:v>
+                  <c:v>2.420291622782244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.810093910675598</c:v>
+                  <c:v>2.862687458034149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.199944036006423</c:v>
+                  <c:v>3.209075880664699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.368022690829334</c:v>
+                  <c:v>3.676682140670346</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.532730779335889</c:v>
+                  <c:v>3.859966582456719</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.42741433380677</c:v>
+                  <c:v>3.887699264981183</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.442121358026968</c:v>
+                  <c:v>4.012035458708604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3391,37 +3564,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.502488764304557</c:v>
+                  <c:v>0.638874165728065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.845818942264787</c:v>
+                  <c:v>0.900020239735988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.372651748259055</c:v>
+                  <c:v>1.357313173648055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.736307390554682</c:v>
+                  <c:v>1.989518324437331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.245034090649095</c:v>
+                  <c:v>2.627458312564424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.108834890754772</c:v>
+                  <c:v>3.820641205414057</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.318225904219814</c:v>
+                  <c:v>4.468113963756092</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.766671947038378</c:v>
+                  <c:v>5.042389124267614</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.321371953853631</c:v>
+                  <c:v>5.61119280611969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.408910799047997</c:v>
+                  <c:v>5.840793958378593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.55869863853708</c:v>
+                  <c:v>6.03675705996993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,37 +3672,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.603820705214185</c:v>
+                  <c:v>0.634605182159741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.842473086752056</c:v>
+                  <c:v>0.927446271156636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.419958603936679</c:v>
+                  <c:v>1.664948043962171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.82745618446989</c:v>
+                  <c:v>2.379416694780269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.042776034470231</c:v>
+                  <c:v>3.292664986504509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.337242957203358</c:v>
+                  <c:v>4.344087424481312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.627146765309701</c:v>
+                  <c:v>5.278719432667784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.144511584819477</c:v>
+                  <c:v>6.013226803324484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.765409748680646</c:v>
+                  <c:v>6.735073545200954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.914708073178337</c:v>
+                  <c:v>7.012950546886729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.070913249591512</c:v>
+                  <c:v>7.272482249116741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3607,37 +3780,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.614224900742322</c:v>
+                  <c:v>0.650820742042495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.748660022367741</c:v>
+                  <c:v>0.8013602114673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.311711854506969</c:v>
+                  <c:v>1.494912563801862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.771672744191304</c:v>
+                  <c:v>2.290509854664042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.414000304075797</c:v>
+                  <c:v>3.991418083630312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.905506927494599</c:v>
+                  <c:v>5.35455707287688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.37211340191903</c:v>
+                  <c:v>7.006052220747795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>8.475733644101907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>9.633712433267556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>10.02835953532543</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>10.72680098689017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,37 +3888,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.638037485736544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.953777015427087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.792653067490156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>2.734257936351985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>4.211643174150792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>5.752197921536606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>7.941947078998803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>9.544761254037317</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>10.71630091436079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>11.80638784527837</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>12.55444894188708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,37 +3996,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.615001365822664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.792764328309352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.566709200595674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>2.788563743478208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>3.517780576504178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>5.339070237029152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>8.272558027967898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>10.94980770626497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>12.99404748863337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>13.88766895848628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>15.00478151526548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,37 +4104,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.441031879808189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.770016210285528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.337680024080637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>2.352504278417253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>3.680055933838003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>5.522255763531375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>7.355394714791053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>11.23755567763054</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>13.3588460614486</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>14.4569512318596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>15.2148100746259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3978,11 +4151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2055856632"/>
-        <c:axId val="2055758392"/>
+        <c:axId val="2105252840"/>
+        <c:axId val="2105036968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2055856632"/>
+        <c:axId val="2105252840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +4172,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t># of variations</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4018,7 +4191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2055758392"/>
+        <c:crossAx val="2105036968"/>
         <c:crossesAt val="0.25"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4026,7 +4199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2055758392"/>
+        <c:axId val="2105036968"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4046,7 +4219,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Title</a:t>
+                  <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4061,11 +4234,11 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#\ ?/?" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2055856632"/>
+        <c:crossAx val="2105252840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4248,11 +4421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2059730264"/>
-        <c:axId val="2059736456"/>
+        <c:axId val="2105207032"/>
+        <c:axId val="2105214440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2059730264"/>
+        <c:axId val="2105207032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,7 +4461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059736456"/>
+        <c:crossAx val="2105214440"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4296,7 +4469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2059736456"/>
+        <c:axId val="2105214440"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4334,7 +4507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059730264"/>
+        <c:crossAx val="2105207032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4578,34 +4751,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.72588785190754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.89431489485734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.250108870903833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.341454316505993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>1.501147195651556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>1.585114911200631</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1.750467833077478</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1.914290896097068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>2.151835835183231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>2.257129272587808</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
@@ -4686,31 +4859,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.824406520962033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.102784038099822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.721805772090162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>2.086647157576897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.41666411707803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>2.708172377432536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>3.089051834258467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>3.547781736230397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>3.966100415577971</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.0</c:v>
@@ -4733,11 +4906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2061811320"/>
-        <c:axId val="2061805032"/>
+        <c:axId val="2105125128"/>
+        <c:axId val="2105025464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2061811320"/>
+        <c:axId val="2105125128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,7 +4946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061805032"/>
+        <c:crossAx val="2105025464"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4781,7 +4954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2061805032"/>
+        <c:axId val="2105025464"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -4819,7 +4992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061811320"/>
+        <c:crossAx val="2105125128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5326,11 +5499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2059612392"/>
-        <c:axId val="2058363544"/>
+        <c:axId val="2107032296"/>
+        <c:axId val="2107039624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2059612392"/>
+        <c:axId val="2107032296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5366,7 +5539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058363544"/>
+        <c:crossAx val="2107039624"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5374,7 +5547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058363544"/>
+        <c:axId val="2107039624"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -5412,7 +5585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059612392"/>
+        <c:crossAx val="2107032296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6027,11 +6200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2062888904"/>
-        <c:axId val="2062882664"/>
+        <c:axId val="2107092824"/>
+        <c:axId val="2107100280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2062888904"/>
+        <c:axId val="2107092824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6067,7 +6240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062882664"/>
+        <c:crossAx val="2107100280"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6075,7 +6248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2062882664"/>
+        <c:axId val="2107100280"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6113,7 +6286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062888904"/>
+        <c:crossAx val="2107092824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6836,11 +7009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2064580568"/>
-        <c:axId val="2064320168"/>
+        <c:axId val="2107157592"/>
+        <c:axId val="2107164936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2064580568"/>
+        <c:axId val="2107157592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6876,7 +7049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064320168"/>
+        <c:crossAx val="2107164936"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6884,7 +7057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064320168"/>
+        <c:axId val="2107164936"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -6922,7 +7095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064580568"/>
+        <c:crossAx val="2107157592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7753,11 +7926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2066102024"/>
-        <c:axId val="2066095736"/>
+        <c:axId val="2103811704"/>
+        <c:axId val="2103762936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2066102024"/>
+        <c:axId val="2103811704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7793,7 +7966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066095736"/>
+        <c:crossAx val="2103762936"/>
         <c:crossesAt val="0.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7801,7 +7974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2066095736"/>
+        <c:axId val="2103762936"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -7839,7 +8012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066102024"/>
+        <c:crossAx val="2103811704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7937,16 +8110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10691,10 +10864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:N72"/>
+  <dimension ref="C4:AB72"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C56"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10703,36 +10876,36 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:14">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="3:14">
       <c r="C6" s="1"/>
@@ -10809,36 +10982,36 @@
       </c>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="3:14">
       <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="1"/>
@@ -10990,7 +11163,7 @@
         <v>186975427</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:28">
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
@@ -11028,7 +11201,7 @@
         <v>159419888</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:28">
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
@@ -11066,7 +11239,7 @@
         <v>123957989</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:28">
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
@@ -11104,7 +11277,7 @@
         <v>141675202</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:28">
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
@@ -11142,7 +11315,7 @@
         <v>177299394</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:28">
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
@@ -11180,7 +11353,7 @@
         <v>176798299</v>
       </c>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:28">
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
@@ -11218,7 +11391,7 @@
         <v>199082432</v>
       </c>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:28">
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
@@ -11256,39 +11429,67 @@
         <v>224766568</v>
       </c>
     </row>
-    <row r="27" spans="3:14">
-      <c r="C27" s="2" t="s">
+    <row r="27" spans="3:28">
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="3:14">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="Q27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="3:28">
       <c r="C28" s="1"/>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="3:14">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="3:28">
       <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>1</v>
@@ -11323,8 +11524,42 @@
       <c r="N29" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="30" spans="3:14">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>2</v>
+      </c>
+      <c r="T29" s="1">
+        <v>4</v>
+      </c>
+      <c r="U29" s="1">
+        <v>8</v>
+      </c>
+      <c r="V29" s="1">
+        <v>16</v>
+      </c>
+      <c r="W29" s="1">
+        <v>32</v>
+      </c>
+      <c r="X29" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>128</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>256</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>512</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28">
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
@@ -11361,8 +11596,11 @@
       <c r="N30">
         <v>506740251</v>
       </c>
-    </row>
-    <row r="31" spans="3:14">
+      <c r="Q30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28">
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
@@ -11399,8 +11637,11 @@
       <c r="N31">
         <v>341729935</v>
       </c>
-    </row>
-    <row r="32" spans="3:14">
+      <c r="Q31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28">
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -11437,8 +11678,11 @@
       <c r="N32">
         <v>180297832</v>
       </c>
-    </row>
-    <row r="33" spans="3:14">
+      <c r="Q32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28">
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -11475,8 +11719,11 @@
       <c r="N33">
         <v>153163911</v>
       </c>
-    </row>
-    <row r="34" spans="3:14">
+      <c r="Q33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:28">
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
@@ -11513,8 +11760,11 @@
       <c r="N34">
         <v>121283019</v>
       </c>
-    </row>
-    <row r="35" spans="3:14">
+      <c r="Q34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:28">
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
@@ -11551,8 +11801,11 @@
       <c r="N35">
         <v>148383750</v>
       </c>
-    </row>
-    <row r="36" spans="3:14">
+      <c r="Q35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28">
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
@@ -11589,8 +11842,11 @@
       <c r="N36">
         <v>181886679</v>
       </c>
-    </row>
-    <row r="37" spans="3:14">
+      <c r="Q36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:28">
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
@@ -11627,8 +11883,44 @@
       <c r="N37">
         <v>184179256</v>
       </c>
-    </row>
-    <row r="38" spans="3:14">
+      <c r="Q37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="7">
+        <v>2834665</v>
+      </c>
+      <c r="S37" s="7">
+        <v>3016590</v>
+      </c>
+      <c r="T37" s="7">
+        <v>3344540</v>
+      </c>
+      <c r="U37" s="7">
+        <v>3957525</v>
+      </c>
+      <c r="V37" s="7">
+        <v>5090385</v>
+      </c>
+      <c r="W37" s="7">
+        <v>7384503</v>
+      </c>
+      <c r="X37" s="7">
+        <v>12110458</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>22808133</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>44346117</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>90646273</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>184179256</v>
+      </c>
+    </row>
+    <row r="38" spans="3:28">
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
@@ -11665,8 +11957,44 @@
       <c r="N38">
         <v>204502125</v>
       </c>
-    </row>
-    <row r="39" spans="3:14">
+      <c r="Q38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" s="7">
+        <v>3414430</v>
+      </c>
+      <c r="S38" s="7">
+        <v>3583575</v>
+      </c>
+      <c r="T38" s="7">
+        <v>3997010</v>
+      </c>
+      <c r="U38" s="7">
+        <v>4622832</v>
+      </c>
+      <c r="V38" s="7">
+        <v>5940666</v>
+      </c>
+      <c r="W38" s="7">
+        <v>8393919</v>
+      </c>
+      <c r="X38" s="7">
+        <v>14165651</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>24811458</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>47638543</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>98715717</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>204502125</v>
+      </c>
+    </row>
+    <row r="39" spans="3:28">
       <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
@@ -11703,47 +12031,83 @@
       <c r="N39">
         <v>217138349</v>
       </c>
-    </row>
-    <row r="43" spans="3:14">
-      <c r="H43" s="3" t="s">
+      <c r="Q39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" s="7">
+        <v>3543626</v>
+      </c>
+      <c r="S39" s="7">
+        <v>3815561</v>
+      </c>
+      <c r="T39" s="7">
+        <v>4206117</v>
+      </c>
+      <c r="U39" s="7">
+        <v>4934383</v>
+      </c>
+      <c r="V39" s="7">
+        <v>6283092</v>
+      </c>
+      <c r="W39" s="7">
+        <v>9206851</v>
+      </c>
+      <c r="X39" s="7">
+        <v>14701740</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>27199374</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>51723877</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>106328730</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>217138349</v>
+      </c>
+    </row>
+    <row r="43" spans="3:28">
+      <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="3:14">
-      <c r="C44" s="2" t="s">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="3:28">
+      <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="3:14">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="3:28">
       <c r="C45" s="1"/>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="3:14">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="3:28">
       <c r="C46" s="1"/>
       <c r="D46" s="1">
         <v>1</v>
@@ -11779,80 +12143,80 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:28">
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>5147324</v>
+        <v>3891834</v>
       </c>
       <c r="E47">
-        <v>6796179</v>
+        <v>5312821</v>
       </c>
       <c r="F47">
-        <v>10184223</v>
+        <v>10158933</v>
       </c>
       <c r="G47">
-        <v>15724474</v>
+        <v>16803482</v>
       </c>
       <c r="H47">
-        <v>23337893</v>
+        <v>23147803</v>
       </c>
       <c r="I47">
-        <v>43343542</v>
+        <v>42917769</v>
       </c>
       <c r="J47">
-        <v>85205278</v>
+        <v>84550899</v>
       </c>
       <c r="K47">
-        <v>168214700</v>
+        <v>168165309</v>
       </c>
       <c r="L47">
-        <v>337763821</v>
+        <v>332989752</v>
       </c>
       <c r="M47">
-        <v>679209237</v>
+        <v>693583073</v>
       </c>
       <c r="N47">
-        <v>1394871055</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14">
+        <v>1404425515</v>
+      </c>
+    </row>
+    <row r="48" spans="3:28">
       <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>3625109</v>
+        <v>3543660</v>
       </c>
       <c r="E48">
-        <v>4678736</v>
+        <v>4319892</v>
       </c>
       <c r="F48">
-        <v>6051761</v>
+        <v>5886071</v>
       </c>
       <c r="G48">
-        <v>9244600</v>
+        <v>8595164</v>
       </c>
       <c r="H48">
-        <v>16374515</v>
+        <v>14501837</v>
       </c>
       <c r="I48">
-        <v>30992998</v>
+        <v>26418401</v>
       </c>
       <c r="J48">
-        <v>54878660</v>
+        <v>47931893</v>
       </c>
       <c r="K48">
-        <v>107390388</v>
+        <v>93111929</v>
       </c>
       <c r="L48">
-        <v>226970264</v>
+        <v>188796090</v>
       </c>
       <c r="M48">
-        <v>443708317</v>
+        <v>372003704</v>
       </c>
       <c r="N48">
-        <v>917006092</v>
+        <v>766641731</v>
       </c>
     </row>
     <row r="49" spans="3:14">
@@ -11860,37 +12224,37 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>4205282</v>
+        <v>3983759</v>
       </c>
       <c r="E49">
-        <v>4153642</v>
+        <v>3820942</v>
       </c>
       <c r="F49">
-        <v>6011105</v>
+        <v>4786117</v>
       </c>
       <c r="G49">
-        <v>8421828</v>
+        <v>6055883</v>
       </c>
       <c r="H49">
-        <v>11476496</v>
+        <v>9209658</v>
       </c>
       <c r="I49">
-        <v>22368691</v>
+        <v>15555198</v>
       </c>
       <c r="J49">
-        <v>40494880</v>
+        <v>28425574</v>
       </c>
       <c r="K49">
-        <v>71406636</v>
+        <v>48227101</v>
       </c>
       <c r="L49">
-        <v>134601422</v>
+        <v>94849966</v>
       </c>
       <c r="M49">
-        <v>288509038</v>
+        <v>186225545</v>
       </c>
       <c r="N49">
-        <v>589365002</v>
+        <v>376254290</v>
       </c>
     </row>
     <row r="50" spans="3:14">
@@ -11898,37 +12262,37 @@
         <v>3</v>
       </c>
       <c r="D50">
-        <v>3386547</v>
+        <v>3144015</v>
       </c>
       <c r="E50">
-        <v>3932955</v>
+        <v>3528935</v>
       </c>
       <c r="F50">
-        <v>4986307</v>
+        <v>4186349</v>
       </c>
       <c r="G50">
-        <v>7092440</v>
+        <v>5527413</v>
       </c>
       <c r="H50">
-        <v>11333784</v>
+        <v>8108420</v>
       </c>
       <c r="I50">
-        <v>19956943</v>
+        <v>12618891</v>
       </c>
       <c r="J50">
-        <v>32638843</v>
+        <v>22375173</v>
       </c>
       <c r="K50">
-        <v>61481402</v>
+        <v>39598026</v>
       </c>
       <c r="L50">
-        <v>118253081</v>
+        <v>77592179</v>
       </c>
       <c r="M50">
-        <v>247054342</v>
+        <v>154256595</v>
       </c>
       <c r="N50">
-        <v>504993889</v>
+        <v>307389198</v>
       </c>
     </row>
     <row r="51" spans="3:14">
@@ -11936,37 +12300,37 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>4068284</v>
+        <v>3199796</v>
       </c>
       <c r="E51">
-        <v>3753775</v>
+        <v>3527714</v>
       </c>
       <c r="F51">
-        <v>4594056</v>
+        <v>4645972</v>
       </c>
       <c r="G51">
-        <v>6210887</v>
+        <v>5420412</v>
       </c>
       <c r="H51">
-        <v>8741400</v>
+        <v>7469097</v>
       </c>
       <c r="I51">
-        <v>17129810</v>
+        <v>9454942</v>
       </c>
       <c r="J51">
-        <v>30973525</v>
+        <v>16070232</v>
       </c>
       <c r="K51">
-        <v>52622558</v>
+        <v>28873090</v>
       </c>
       <c r="L51">
-        <v>90174549</v>
+        <v>53376034</v>
       </c>
       <c r="M51">
-        <v>175922248</v>
+        <v>102674954</v>
       </c>
       <c r="N51">
-        <v>346547007</v>
+        <v>204291203</v>
       </c>
     </row>
     <row r="52" spans="3:14">
@@ -11974,37 +12338,37 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <v>3385553</v>
+        <v>3221321</v>
       </c>
       <c r="E52">
-        <v>3768683</v>
+        <v>3423394</v>
       </c>
       <c r="F52">
-        <v>4441002</v>
+        <v>3787529</v>
       </c>
       <c r="G52">
-        <v>5901104</v>
+        <v>4532207</v>
       </c>
       <c r="H52">
-        <v>9606898</v>
+        <v>5960139</v>
       </c>
       <c r="I52">
-        <v>15455792</v>
+        <v>8315657</v>
       </c>
       <c r="J52">
-        <v>27331411</v>
+        <v>13602471</v>
       </c>
       <c r="K52">
-        <v>46299513</v>
+        <v>24211519</v>
       </c>
       <c r="L52">
-        <v>79540671</v>
+        <v>44469183</v>
       </c>
       <c r="M52">
-        <v>153192330</v>
+        <v>85513686</v>
       </c>
       <c r="N52">
-        <v>302943415</v>
+        <v>169578463</v>
       </c>
     </row>
     <row r="53" spans="3:14">
@@ -12012,74 +12376,185 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>3328206</v>
+        <v>3141060</v>
       </c>
       <c r="E53">
-        <v>4240929</v>
+        <v>3962031</v>
       </c>
       <c r="F53">
-        <v>4807488</v>
+        <v>4218333</v>
       </c>
       <c r="G53">
-        <v>6086908</v>
+        <v>4708126</v>
       </c>
       <c r="H53">
-        <v>8129552</v>
+        <v>4916734</v>
       </c>
       <c r="I53">
-        <v>12432922</v>
+        <v>6746392</v>
       </c>
       <c r="J53">
-        <v>21293361</v>
+        <v>10248800</v>
+      </c>
+      <c r="K53">
+        <v>17177198</v>
+      </c>
+      <c r="L53">
+        <v>31089076</v>
+      </c>
+      <c r="M53">
+        <v>59800733</v>
+      </c>
+      <c r="N53">
+        <v>114969632</v>
       </c>
     </row>
     <row r="54" spans="3:14">
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D54">
+        <v>3203992</v>
+      </c>
+      <c r="E54">
+        <v>3328885</v>
+      </c>
+      <c r="F54">
+        <v>3517713</v>
+      </c>
+      <c r="G54">
+        <v>3944035</v>
+      </c>
+      <c r="H54">
+        <v>4659640</v>
+      </c>
+      <c r="I54">
+        <v>6280024</v>
+      </c>
+      <c r="J54">
+        <v>9041061</v>
+      </c>
+      <c r="K54">
+        <v>15253326</v>
+      </c>
+      <c r="L54">
+        <v>27948377</v>
+      </c>
+      <c r="M54">
+        <v>50794812</v>
+      </c>
+      <c r="N54">
+        <v>98232616</v>
+      </c>
     </row>
     <row r="55" spans="3:14">
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D55">
+        <v>3324004</v>
+      </c>
+      <c r="E55">
+        <v>4004991</v>
+      </c>
+      <c r="F55">
+        <v>4025022</v>
+      </c>
+      <c r="G55">
+        <v>3867227</v>
+      </c>
+      <c r="H55">
+        <v>5578728</v>
+      </c>
+      <c r="I55">
+        <v>6765961</v>
+      </c>
+      <c r="J55">
+        <v>8679737</v>
+      </c>
+      <c r="K55">
+        <v>13296065</v>
+      </c>
+      <c r="L55">
+        <v>23049263</v>
+      </c>
+      <c r="M55">
+        <v>43182427</v>
+      </c>
+      <c r="N55">
+        <v>82190891</v>
+      </c>
     </row>
     <row r="56" spans="3:14">
       <c r="C56" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D56">
+        <v>4635191</v>
+      </c>
+      <c r="E56">
+        <v>4123308</v>
+      </c>
+      <c r="F56">
+        <v>4714161</v>
+      </c>
+      <c r="G56">
+        <v>4584055</v>
+      </c>
+      <c r="H56">
+        <v>5332729</v>
+      </c>
+      <c r="I56">
+        <v>6541519</v>
+      </c>
+      <c r="J56">
+        <v>9762036</v>
+      </c>
+      <c r="K56">
+        <v>12955607</v>
+      </c>
+      <c r="L56">
+        <v>22419842</v>
+      </c>
+      <c r="M56">
+        <v>41482000</v>
+      </c>
+      <c r="N56">
+        <v>81056310</v>
+      </c>
     </row>
     <row r="59" spans="3:14">
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="3:14">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
     </row>
     <row r="61" spans="3:14">
       <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="3:14">
       <c r="C62" s="1"/>
@@ -12126,19 +12601,21 @@
       <c r="C72" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="Q27:AB27"/>
+    <mergeCell ref="R28:AB28"/>
+    <mergeCell ref="D28:N28"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="C27:N27"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="D45:N45"/>
     <mergeCell ref="C60:N60"/>
     <mergeCell ref="D61:N61"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H59:J59"/>
-    <mergeCell ref="D28:N28"/>
-    <mergeCell ref="D12:N12"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="C27:N27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12154,43 +12631,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N64"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView showRuler="0" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="4" spans="3:14">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="3:14">
       <c r="C6" s="1"/>
@@ -12719,36 +13196,36 @@
       </c>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="1"/>
@@ -13283,19 +13760,19 @@
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="1"/>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="1"/>
@@ -13337,48 +13814,48 @@
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="4">
-        <f>D7/D24</f>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38:N38" si="0">D7/D24</f>
         <v>1.0097056019181374</v>
       </c>
-      <c r="E38" s="4">
-        <f>E7/E24</f>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
         <v>1.0171150407251368</v>
       </c>
-      <c r="F38" s="4">
-        <f>F7/F24</f>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
         <v>1.0051601905806811</v>
       </c>
-      <c r="G38" s="4">
-        <f>G7/G24</f>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
         <v>1.0100666695569653</v>
       </c>
-      <c r="H38" s="4">
-        <f>H7/H24</f>
+      <c r="H38" s="2">
+        <f t="shared" si="0"/>
         <v>1.0083062935717504</v>
       </c>
-      <c r="I38" s="4">
-        <f>I7/I24</f>
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
         <v>1.03490301618765</v>
       </c>
-      <c r="J38" s="4">
-        <f>J7/J24</f>
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
         <v>1.0408927371859646</v>
       </c>
-      <c r="K38" s="4">
-        <f>K7/K24</f>
+      <c r="K38" s="2">
+        <f t="shared" si="0"/>
         <v>1.0348746264542312</v>
       </c>
-      <c r="L38" s="4">
-        <f>L7/L24</f>
+      <c r="L38" s="2">
+        <f t="shared" si="0"/>
         <v>1.0025744175787854</v>
       </c>
-      <c r="M38" s="4">
-        <f>M7/M24</f>
+      <c r="M38" s="2">
+        <f t="shared" si="0"/>
         <v>1.0115576815439924</v>
       </c>
-      <c r="N38" s="4">
-        <f>N7/N24</f>
+      <c r="N38" s="2">
+        <f t="shared" si="0"/>
         <v>1.000727740053363</v>
       </c>
     </row>
@@ -13386,48 +13863,48 @@
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="4">
-        <f>D8/D25</f>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39:N39" si="1">D8/D25</f>
         <v>0.98447896094563458</v>
       </c>
-      <c r="E39" s="4">
-        <f>E8/E25</f>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
         <v>1.024983079124443</v>
       </c>
-      <c r="F39" s="4">
-        <f>F8/F25</f>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
         <v>1.0577337157280426</v>
       </c>
-      <c r="G39" s="4">
-        <f>G8/G25</f>
+      <c r="G39" s="2">
+        <f t="shared" si="1"/>
         <v>1.0819273385352974</v>
       </c>
-      <c r="H39" s="4">
-        <f>H8/H25</f>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
         <v>1.0982131693481976</v>
       </c>
-      <c r="I39" s="4">
-        <f>I8/I25</f>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
         <v>1.0712953439968558</v>
       </c>
-      <c r="J39" s="4">
-        <f>J8/J25</f>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
         <v>1.0478863419661486</v>
       </c>
-      <c r="K39" s="4">
-        <f>K8/K25</f>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
         <v>1.1327976829467994</v>
       </c>
-      <c r="L39" s="4">
-        <f>L8/L25</f>
+      <c r="L39" s="2">
+        <f t="shared" si="1"/>
         <v>1.1502612026129697</v>
       </c>
-      <c r="M39" s="4">
-        <f>M8/M25</f>
+      <c r="M39" s="2">
+        <f t="shared" si="1"/>
         <v>1.0624913049867257</v>
       </c>
-      <c r="N39" s="4">
-        <f>N8/N25</f>
+      <c r="N39" s="2">
+        <f t="shared" si="1"/>
         <v>1.1196794912013956</v>
       </c>
     </row>
@@ -13435,48 +13912,48 @@
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="4">
-        <f>D9/D26</f>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40:N40" si="2">D9/D26</f>
         <v>1.1873646675344278</v>
       </c>
-      <c r="E40" s="4">
-        <f>E9/E26</f>
+      <c r="E40" s="2">
+        <f t="shared" si="2"/>
         <v>1.166795090647573</v>
       </c>
-      <c r="F40" s="4">
-        <f>F9/F26</f>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
         <v>1.1327948198050886</v>
       </c>
-      <c r="G40" s="4">
-        <f>G9/G26</f>
+      <c r="G40" s="2">
+        <f t="shared" si="2"/>
         <v>1.1223884032518068</v>
       </c>
-      <c r="H40" s="4">
-        <f>H9/H26</f>
+      <c r="H40" s="2">
+        <f t="shared" si="2"/>
         <v>0.97099289711829251</v>
       </c>
-      <c r="I40" s="4">
-        <f>I9/I26</f>
+      <c r="I40" s="2">
+        <f t="shared" si="2"/>
         <v>0.97160419443971158</v>
       </c>
-      <c r="J40" s="4">
-        <f>J9/J26</f>
+      <c r="J40" s="2">
+        <f t="shared" si="2"/>
         <v>0.9607127414226212</v>
       </c>
-      <c r="K40" s="4">
-        <f>K9/K26</f>
+      <c r="K40" s="2">
+        <f t="shared" si="2"/>
         <v>0.96061451549415611</v>
       </c>
-      <c r="L40" s="4">
-        <f>L9/L26</f>
+      <c r="L40" s="2">
+        <f t="shared" si="2"/>
         <v>0.99403904355703754</v>
       </c>
-      <c r="M40" s="4">
-        <f>M9/M26</f>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
         <v>0.96320611149725499</v>
       </c>
-      <c r="N40" s="4">
-        <f>N9/N26</f>
+      <c r="N40" s="2">
+        <f t="shared" si="2"/>
         <v>0.96428624281200337</v>
       </c>
     </row>
@@ -13484,48 +13961,48 @@
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4">
-        <f>D10/D27</f>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41:N41" si="3">D10/D27</f>
         <v>0.99186615669159395</v>
       </c>
-      <c r="E41" s="4">
-        <f>E10/E27</f>
+      <c r="E41" s="2">
+        <f t="shared" si="3"/>
         <v>0.98681451510873963</v>
       </c>
-      <c r="F41" s="4">
-        <f>F10/F27</f>
+      <c r="F41" s="2">
+        <f t="shared" si="3"/>
         <v>1.0018973828777562</v>
       </c>
-      <c r="G41" s="4">
-        <f>G10/G27</f>
+      <c r="G41" s="2">
+        <f t="shared" si="3"/>
         <v>0.9866257632127321</v>
       </c>
-      <c r="H41" s="4">
-        <f>H10/H27</f>
+      <c r="H41" s="2">
+        <f t="shared" si="3"/>
         <v>0.95608340383357282</v>
       </c>
-      <c r="I41" s="4">
-        <f>I10/I27</f>
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
         <v>0.99322174840058208</v>
       </c>
-      <c r="J41" s="4">
-        <f>J10/J27</f>
+      <c r="J41" s="2">
+        <f t="shared" si="3"/>
         <v>0.9335866609743827</v>
       </c>
-      <c r="K41" s="4">
-        <f>K10/K27</f>
+      <c r="K41" s="2">
+        <f t="shared" si="3"/>
         <v>0.96867691538643563</v>
       </c>
-      <c r="L41" s="4">
-        <f>L10/L27</f>
+      <c r="L41" s="2">
+        <f t="shared" si="3"/>
         <v>0.95073537839560562</v>
       </c>
-      <c r="M41" s="4">
-        <f>M10/M27</f>
+      <c r="M41" s="2">
+        <f t="shared" si="3"/>
         <v>0.96196845620840565</v>
       </c>
-      <c r="N41" s="4">
-        <f>N10/N27</f>
+      <c r="N41" s="2">
+        <f t="shared" si="3"/>
         <v>0.96075786353582182</v>
       </c>
     </row>
@@ -13533,48 +14010,48 @@
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="4">
-        <f>D11/D28</f>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:N42" si="4">D11/D28</f>
         <v>1.0029395020381375</v>
       </c>
-      <c r="E42" s="4">
-        <f>E11/E28</f>
+      <c r="E42" s="2">
+        <f t="shared" si="4"/>
         <v>0.99914695714570845</v>
       </c>
-      <c r="F42" s="4">
-        <f>F11/F28</f>
+      <c r="F42" s="2">
+        <f t="shared" si="4"/>
         <v>0.99150333115334488</v>
       </c>
-      <c r="G42" s="4">
-        <f>G11/G28</f>
+      <c r="G42" s="2">
+        <f t="shared" si="4"/>
         <v>0.97067888620452947</v>
       </c>
-      <c r="H42" s="4">
-        <f>H11/H28</f>
+      <c r="H42" s="2">
+        <f t="shared" si="4"/>
         <v>0.96001802718276286</v>
       </c>
-      <c r="I42" s="4">
-        <f>I11/I28</f>
+      <c r="I42" s="2">
+        <f t="shared" si="4"/>
         <v>0.9730895065569084</v>
       </c>
-      <c r="J42" s="4">
-        <f>J11/J28</f>
+      <c r="J42" s="2">
+        <f t="shared" si="4"/>
         <v>0.94921478565625328</v>
       </c>
-      <c r="K42" s="4">
-        <f>K11/K28</f>
+      <c r="K42" s="2">
+        <f t="shared" si="4"/>
         <v>1.0066457738277343</v>
       </c>
-      <c r="L42" s="4">
-        <f>L11/L28</f>
+      <c r="L42" s="2">
+        <f t="shared" si="4"/>
         <v>0.99551766846553824</v>
       </c>
-      <c r="M42" s="4">
-        <f>M11/M28</f>
+      <c r="M42" s="2">
+        <f t="shared" si="4"/>
         <v>1.0238090766546575</v>
       </c>
-      <c r="N42" s="4">
-        <f>N11/N28</f>
+      <c r="N42" s="2">
+        <f t="shared" si="4"/>
         <v>0.97842035013975592</v>
       </c>
     </row>
@@ -13582,48 +14059,48 @@
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="4">
-        <f>D12/D29</f>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43:N43" si="5">D12/D29</f>
         <v>1.0102317609259075</v>
       </c>
-      <c r="E43" s="4">
-        <f>E12/E29</f>
+      <c r="E43" s="2">
+        <f t="shared" si="5"/>
         <v>0.99399970644356372</v>
       </c>
-      <c r="F43" s="4">
-        <f>F12/F29</f>
+      <c r="F43" s="2">
+        <f t="shared" si="5"/>
         <v>0.98442734497130546</v>
       </c>
-      <c r="G43" s="4">
-        <f>G12/G29</f>
+      <c r="G43" s="2">
+        <f t="shared" si="5"/>
         <v>0.98502668641355173</v>
       </c>
-      <c r="H43" s="4">
-        <f>H12/H29</f>
+      <c r="H43" s="2">
+        <f t="shared" si="5"/>
         <v>0.97868039393214301</v>
       </c>
-      <c r="I43" s="4">
-        <f>I12/I29</f>
+      <c r="I43" s="2">
+        <f t="shared" si="5"/>
         <v>0.99790211886480751</v>
       </c>
-      <c r="J43" s="4">
-        <f>J12/J29</f>
+      <c r="J43" s="2">
+        <f t="shared" si="5"/>
         <v>0.97908226229147577</v>
       </c>
-      <c r="K43" s="4">
-        <f>K12/K29</f>
+      <c r="K43" s="2">
+        <f t="shared" si="5"/>
         <v>1.0316074081787328</v>
       </c>
-      <c r="L43" s="4">
-        <f>L12/L29</f>
+      <c r="L43" s="2">
+        <f t="shared" si="5"/>
         <v>1.1079899377489286</v>
       </c>
-      <c r="M43" s="4">
-        <f>M12/M29</f>
+      <c r="M43" s="2">
+        <f t="shared" si="5"/>
         <v>1.1363517414825679</v>
       </c>
-      <c r="N43" s="4">
-        <f>N12/N29</f>
+      <c r="N43" s="2">
+        <f t="shared" si="5"/>
         <v>1.0473516035643273</v>
       </c>
     </row>
@@ -13631,48 +14108,48 @@
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="4">
-        <f>D13/D30</f>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44:N44" si="6">D13/D30</f>
         <v>1.0004332322577907</v>
       </c>
-      <c r="E44" s="4">
-        <f>E13/E30</f>
+      <c r="E44" s="2">
+        <f t="shared" si="6"/>
         <v>0.99863117570184479</v>
       </c>
-      <c r="F44" s="4">
-        <f>F13/F30</f>
+      <c r="F44" s="2">
+        <f t="shared" si="6"/>
         <v>1.0196637489927916</v>
       </c>
-      <c r="G44" s="4">
-        <f>G13/G30</f>
+      <c r="G44" s="2">
+        <f t="shared" si="6"/>
         <v>0.99926525855298154</v>
       </c>
-      <c r="H44" s="4">
-        <f>H13/H30</f>
+      <c r="H44" s="2">
+        <f t="shared" si="6"/>
         <v>0.97702080361106503</v>
       </c>
-      <c r="I44" s="4">
-        <f>I13/I30</f>
+      <c r="I44" s="2">
+        <f t="shared" si="6"/>
         <v>1.0109248776199851</v>
       </c>
-      <c r="J44" s="4">
-        <f>J13/J30</f>
+      <c r="J44" s="2">
+        <f t="shared" si="6"/>
         <v>1.0509449105817263</v>
       </c>
-      <c r="K44" s="4">
-        <f>K13/K30</f>
+      <c r="K44" s="2">
+        <f t="shared" si="6"/>
         <v>1.0146971288094011</v>
       </c>
-      <c r="L44" s="4">
-        <f>L13/L30</f>
+      <c r="L44" s="2">
+        <f t="shared" si="6"/>
         <v>1.0179950820795634</v>
       </c>
-      <c r="M44" s="4">
-        <f>M13/M30</f>
+      <c r="M44" s="2">
+        <f t="shared" si="6"/>
         <v>1.0262912265127402</v>
       </c>
-      <c r="N44" s="4">
-        <f>N13/N30</f>
+      <c r="N44" s="2">
+        <f t="shared" si="6"/>
         <v>1.0258731002769248</v>
       </c>
     </row>
@@ -13680,48 +14157,48 @@
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="4">
-        <f>D14/D31</f>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45:N45" si="7">D14/D31</f>
         <v>1.1341345630645339</v>
       </c>
-      <c r="E45" s="4">
-        <f>E14/E31</f>
+      <c r="E45" s="2">
+        <f t="shared" si="7"/>
         <v>1.1530064419661181</v>
       </c>
-      <c r="F45" s="4">
-        <f>F14/F31</f>
+      <c r="F45" s="2">
+        <f t="shared" si="7"/>
         <v>1.0269840714203684</v>
       </c>
-      <c r="G45" s="4">
-        <f>G14/G31</f>
+      <c r="G45" s="2">
+        <f t="shared" si="7"/>
         <v>1.0107944244855134</v>
       </c>
-      <c r="H45" s="4">
-        <f>H14/H31</f>
+      <c r="H45" s="2">
+        <f t="shared" si="7"/>
         <v>0.99709786157293323</v>
       </c>
-      <c r="I45" s="4">
-        <f>I14/I31</f>
+      <c r="I45" s="2">
+        <f t="shared" si="7"/>
         <v>0.98125406198089526</v>
       </c>
-      <c r="J45" s="4">
-        <f>J14/J31</f>
+      <c r="J45" s="2">
+        <f t="shared" si="7"/>
         <v>1.0008040838534675</v>
       </c>
-      <c r="K45" s="4">
-        <f>K14/K31</f>
+      <c r="K45" s="2">
+        <f t="shared" si="7"/>
         <v>1.0037312285025617</v>
       </c>
-      <c r="L45" s="4">
-        <f>L14/L31</f>
+      <c r="L45" s="2">
+        <f t="shared" si="7"/>
         <v>1.0133133382745918</v>
       </c>
-      <c r="M45" s="4">
-        <f>M14/M31</f>
+      <c r="M45" s="2">
+        <f t="shared" si="7"/>
         <v>1.00776898988334</v>
       </c>
-      <c r="N45" s="4">
-        <f>N14/N31</f>
+      <c r="N45" s="2">
+        <f t="shared" si="7"/>
         <v>1.0417478960020989</v>
       </c>
     </row>
@@ -13729,48 +14206,48 @@
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="4">
-        <f>D15/D32</f>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46:N46" si="8">D15/D32</f>
         <v>1.1208788106393259</v>
       </c>
-      <c r="E46" s="4">
-        <f>E15/E32</f>
+      <c r="E46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0667103442692047</v>
       </c>
-      <c r="F46" s="4">
-        <f>F15/F32</f>
+      <c r="F46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0172261226679506</v>
       </c>
-      <c r="G46" s="4">
-        <f>G15/G32</f>
+      <c r="G46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0926141750037757</v>
       </c>
-      <c r="H46" s="4">
-        <f>H15/H32</f>
+      <c r="H46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0425802407212863</v>
       </c>
-      <c r="I46" s="4">
-        <f>I15/I32</f>
+      <c r="I46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0635157122849288</v>
       </c>
-      <c r="J46" s="4">
-        <f>J15/J32</f>
+      <c r="J46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0827917330338193</v>
       </c>
-      <c r="K46" s="4">
-        <f>K15/K32</f>
+      <c r="K46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0319453797329603</v>
       </c>
-      <c r="L46" s="4">
-        <f>L15/L32</f>
+      <c r="L46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0474939118051316</v>
       </c>
-      <c r="M46" s="4">
-        <f>M15/M32</f>
+      <c r="M46" s="2">
+        <f t="shared" si="8"/>
         <v>1.040124468430347</v>
       </c>
-      <c r="N46" s="4">
-        <f>N15/N32</f>
+      <c r="N46" s="2">
+        <f t="shared" si="8"/>
         <v>1.0272233614264867</v>
       </c>
     </row>
@@ -13778,89 +14255,89 @@
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4">
-        <f>D16/D33</f>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47:N47" si="9">D16/D33</f>
         <v>0.89223534838493146</v>
       </c>
-      <c r="E47" s="4">
-        <f>E16/E33</f>
+      <c r="E47" s="2">
+        <f t="shared" si="9"/>
         <v>1.1504209801110454</v>
       </c>
-      <c r="F47" s="4">
-        <f>F16/F33</f>
+      <c r="F47" s="2">
+        <f t="shared" si="9"/>
         <v>1.0776807909126827</v>
       </c>
-      <c r="G47" s="4">
-        <f>G16/G33</f>
+      <c r="G47" s="2">
+        <f t="shared" si="9"/>
         <v>1.0175072306691724</v>
       </c>
-      <c r="H47" s="4">
-        <f>H16/H33</f>
+      <c r="H47" s="2">
+        <f t="shared" si="9"/>
         <v>0.94198362384774359</v>
       </c>
-      <c r="I47" s="4">
-        <f>I16/I33</f>
+      <c r="I47" s="2">
+        <f t="shared" si="9"/>
         <v>0.92055649825719343</v>
       </c>
-      <c r="J47" s="4">
-        <f>J16/J33</f>
+      <c r="J47" s="2">
+        <f t="shared" si="9"/>
         <v>0.90909304523482615</v>
       </c>
-      <c r="K47" s="4">
-        <f>K16/K33</f>
+      <c r="K47" s="2">
+        <f t="shared" si="9"/>
         <v>0.91366497022273807</v>
       </c>
-      <c r="L47" s="4">
-        <f>L16/L33</f>
+      <c r="L47" s="2">
+        <f t="shared" si="9"/>
         <v>0.98395267230417371</v>
       </c>
-      <c r="M47" s="4">
-        <f>M16/M33</f>
+      <c r="M47" s="2">
+        <f t="shared" si="9"/>
         <v>0.96110713705732254</v>
       </c>
-      <c r="N47" s="4">
-        <f>N16/N33</f>
+      <c r="N47" s="2">
+        <f t="shared" si="9"/>
         <v>0.96606159417800952</v>
       </c>
     </row>
     <row r="51" spans="3:14">
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="3:14">
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
     </row>
     <row r="53" spans="3:14">
       <c r="C53" s="1"/>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
     </row>
     <row r="54" spans="3:14">
       <c r="C54" s="1"/>
@@ -13904,47 +14381,47 @@
       </c>
       <c r="D55">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D47</f>
-        <v>0.39715141304491419</v>
+        <v>0.52527086201518358</v>
       </c>
       <c r="E55">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E47</f>
-        <v>0.46717633540846998</v>
+        <v>0.59761358419566557</v>
       </c>
       <c r="F55">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F47</f>
-        <v>0.61919686951081099</v>
+        <v>0.62073831966408288</v>
       </c>
       <c r="G55">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G47</f>
-        <v>0.68581047607697398</v>
+        <v>0.64177228267331732</v>
       </c>
       <c r="H55">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H47</f>
-        <v>0.84089600547915788</v>
+        <v>0.84780145225877379</v>
       </c>
       <c r="I55">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I47</f>
-        <v>0.83343306368455072</v>
+        <v>0.84170127762232938</v>
       </c>
       <c r="J55">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J47</f>
-        <v>0.84271338214517655</v>
+        <v>0.84923553562688903</v>
       </c>
       <c r="K55">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K47</f>
-        <v>0.86549721873296448</v>
+        <v>0.86575141963435509</v>
       </c>
       <c r="L55">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L47</f>
-        <v>0.88672379745490859</v>
+        <v>0.89943674302625387</v>
       </c>
       <c r="M55">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M47</f>
-        <v>0.88294330867588011</v>
+        <v>0.86464516558350324</v>
       </c>
       <c r="N55">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N47</f>
-        <v>0.88413646378230992</v>
+        <v>0.87812158696077236</v>
       </c>
     </row>
     <row r="56" spans="3:14">
@@ -13953,47 +14430,47 @@
       </c>
       <c r="D56">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D48</f>
-        <v>0.56391876768395099</v>
+        <v>0.57688011829577335</v>
       </c>
       <c r="E56">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E48</f>
-        <v>0.6786050762428143</v>
+        <v>0.73497531882741518</v>
       </c>
       <c r="F56">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F48</f>
-        <v>1.0420171913596721</v>
+        <v>1.0713494621454618</v>
       </c>
       <c r="G56">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G48</f>
-        <v>1.166519806157108</v>
+        <v>1.2546600623327258</v>
       </c>
       <c r="H56">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H48</f>
-        <v>1.1984929629976826</v>
+        <v>1.3532589698808504</v>
       </c>
       <c r="I56">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I48</f>
-        <v>1.165551683641576</v>
+        <v>1.3673780256420516</v>
       </c>
       <c r="J56">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J48</f>
-        <v>1.3084070930303326</v>
+        <v>1.4980344715365195</v>
       </c>
       <c r="K56">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K48</f>
-        <v>1.3557019181269743</v>
+        <v>1.5635950899481419</v>
       </c>
       <c r="L56">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L48</f>
-        <v>1.3195702940187795</v>
+        <v>1.5863846438768938</v>
       </c>
       <c r="M56">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M48</f>
-        <v>1.3515709037295327</v>
+        <v>1.6120894618834225</v>
       </c>
       <c r="N56">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N48</f>
-        <v>1.3448725943687623</v>
+        <v>1.6086475756953023</v>
       </c>
     </row>
     <row r="57" spans="3:14">
@@ -14002,47 +14479,47 @@
       </c>
       <c r="D57">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D49</f>
-        <v>0.48611888572514284</v>
+        <v>0.51315026837717848</v>
       </c>
       <c r="E57">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E49</f>
-        <v>0.76439279071234356</v>
+        <v>0.8309505875776183</v>
       </c>
       <c r="F57">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F49</f>
-        <v>1.049064855796064</v>
+        <v>1.317568918603536</v>
       </c>
       <c r="G57">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G49</f>
-        <v>1.2804831682622821</v>
+        <v>1.7807492317800724</v>
       </c>
       <c r="H57">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H49</f>
-        <v>1.7099941480396108</v>
+        <v>2.1308870535691988</v>
       </c>
       <c r="I57">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I49</f>
-        <v>1.6149331670771436</v>
+        <v>2.3223067298789766</v>
       </c>
       <c r="J57">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J49</f>
-        <v>1.7731532480155516</v>
+        <v>2.526022095455311</v>
       </c>
       <c r="K57">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K49</f>
-        <v>2.0388771010022095</v>
+        <v>3.0188286664794552</v>
       </c>
       <c r="L57">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L49</f>
-        <v>2.2251118416861897</v>
+        <v>3.1576523496065354</v>
       </c>
       <c r="M57">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M49</f>
-        <v>2.0786289925516996</v>
+        <v>3.2203060595150896</v>
       </c>
       <c r="N57">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N49</f>
-        <v>2.0925171291389306</v>
+        <v>3.2777204002112508</v>
       </c>
     </row>
     <row r="58" spans="3:14">
@@ -14051,47 +14528,47 @@
       </c>
       <c r="D58">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D50</f>
-        <v>0.60364347519759798</v>
+        <v>0.65020904798482193</v>
       </c>
       <c r="E58">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E50</f>
-        <v>0.80728459898473282</v>
+        <v>0.89970883566855153</v>
       </c>
       <c r="F58">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F50</f>
-        <v>1.2646712286267172</v>
+        <v>1.5063338006458611</v>
       </c>
       <c r="G58">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G50</f>
-        <v>1.520493511400872</v>
+        <v>1.9510047467051945</v>
       </c>
       <c r="H58">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H50</f>
-        <v>1.7315259404978955</v>
+        <v>2.4202916227822437</v>
       </c>
       <c r="I58">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I50</f>
-        <v>1.810093910675598</v>
+        <v>2.862687458034149</v>
       </c>
       <c r="J58">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J50</f>
-        <v>2.1999440360064235</v>
+        <v>3.2090758806646993</v>
       </c>
       <c r="K58">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K50</f>
-        <v>2.368022690829334</v>
+        <v>3.6766821406703456</v>
       </c>
       <c r="L58">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L50</f>
-        <v>2.5327307793358891</v>
+        <v>3.8599665824567189</v>
       </c>
       <c r="M58">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M50</f>
-        <v>2.4274143338067704</v>
+        <v>3.8876992649811828</v>
       </c>
       <c r="N58">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N50</f>
-        <v>2.4421213580269683</v>
+        <v>4.0120354587086045</v>
       </c>
     </row>
     <row r="59" spans="3:14">
@@ -14100,47 +14577,47 @@
       </c>
       <c r="D59">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D51</f>
-        <v>0.50248876430455691</v>
+        <v>0.63887416572806521</v>
       </c>
       <c r="E59">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E51</f>
-        <v>0.84581894226478682</v>
+        <v>0.90002023973598766</v>
       </c>
       <c r="F59">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F51</f>
-        <v>1.3726517482590548</v>
+        <v>1.3573131736480546</v>
       </c>
       <c r="G59">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G51</f>
-        <v>1.7363073905546824</v>
+        <v>1.9895183244373307</v>
       </c>
       <c r="H59">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H51</f>
-        <v>2.2450340906490953</v>
+        <v>2.627458312564424</v>
       </c>
       <c r="I59">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I51</f>
-        <v>2.108834890754772</v>
+        <v>3.8206412054140575</v>
       </c>
       <c r="J59">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J51</f>
-        <v>2.3182259042198137</v>
+        <v>4.4681139637560925</v>
       </c>
       <c r="K59">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K51</f>
-        <v>2.7666719470383785</v>
+        <v>5.042389124267614</v>
       </c>
       <c r="L59">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L51</f>
-        <v>3.3213719538536313</v>
+        <v>5.6111928061196901</v>
       </c>
       <c r="M59">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M51</f>
-        <v>3.4089107990479977</v>
+        <v>5.8407939583785931</v>
       </c>
       <c r="N59">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N51</f>
-        <v>3.5586986385370802</v>
+        <v>6.0367570599699292</v>
       </c>
     </row>
     <row r="60" spans="3:14">
@@ -14149,47 +14626,47 @@
       </c>
       <c r="D60">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D52</f>
-        <v>0.60382070521418507</v>
+        <v>0.63460518215974127</v>
       </c>
       <c r="E60">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E52</f>
-        <v>0.84247308675205634</v>
+        <v>0.9274462711566358</v>
       </c>
       <c r="F60">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F52</f>
-        <v>1.4199586039366792</v>
+        <v>1.6649480439621716</v>
       </c>
       <c r="G60">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G52</f>
-        <v>1.8274561844698891</v>
+        <v>2.3794166947802693</v>
       </c>
       <c r="H60">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H52</f>
-        <v>2.0427760344702315</v>
+        <v>3.2926649865045095</v>
       </c>
       <c r="I60">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I52</f>
-        <v>2.3372429572033577</v>
+        <v>4.3440874244813124</v>
       </c>
       <c r="J60">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J52</f>
-        <v>2.6271467653097016</v>
+        <v>5.2787194326677849</v>
       </c>
       <c r="K60">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K52</f>
-        <v>3.1445115848194773</v>
+        <v>6.0132268033244838</v>
       </c>
       <c r="L60">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L52</f>
-        <v>3.7654097486806468</v>
+        <v>6.7350735452009545</v>
       </c>
       <c r="M60">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M52</f>
-        <v>3.9147080731783372</v>
+        <v>7.0129505468867288</v>
       </c>
       <c r="N60">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N52</f>
-        <v>4.0709132495915119</v>
+        <v>7.2724822491167407</v>
       </c>
     </row>
     <row r="61" spans="3:14">
@@ -14198,194 +14675,194 @@
       </c>
       <c r="D61">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D53</f>
-        <v>0.61422490074232183</v>
+        <v>0.65082074204249518</v>
       </c>
       <c r="E61">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E53</f>
-        <v>0.74866002236774065</v>
+        <v>0.80136021146730052</v>
       </c>
       <c r="F61">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F53</f>
-        <v>1.311711854506969</v>
+        <v>1.4949125638018621</v>
       </c>
       <c r="G61">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G53</f>
-        <v>1.7716727441913036</v>
+        <v>2.2905098546640423</v>
       </c>
       <c r="H61">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H53</f>
-        <v>2.4140003040757967</v>
+        <v>3.9914180836303124</v>
       </c>
       <c r="I61">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I53</f>
-        <v>2.9055069274945988</v>
+        <v>5.3545570728768803</v>
       </c>
       <c r="J61">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J53</f>
-        <v>3.3721134019190302</v>
-      </c>
-      <c r="K61" t="e">
+        <v>7.0060522207477947</v>
+      </c>
+      <c r="K61">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L61" t="e">
+        <v>8.4757336441019078</v>
+      </c>
+      <c r="L61">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" t="e">
+        <v>9.6337124332675561</v>
+      </c>
+      <c r="M61">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N61" t="e">
+        <v>10.028359535325428</v>
+      </c>
+      <c r="N61">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N53</f>
-        <v>#DIV/0!</v>
+        <v>10.726800986890172</v>
       </c>
     </row>
     <row r="62" spans="3:14">
       <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D62" t="e">
+      <c r="D62">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E62" t="e">
+        <v>0.63803748573654362</v>
+      </c>
+      <c r="E62">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" t="e">
+        <v>0.95377701542708748</v>
+      </c>
+      <c r="F62">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" t="e">
+        <v>1.7926530674901562</v>
+      </c>
+      <c r="G62">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" t="e">
+        <v>2.7342579363519848</v>
+      </c>
+      <c r="H62">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" t="e">
+        <v>4.2116431741507929</v>
+      </c>
+      <c r="I62">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J62" t="e">
+        <v>5.7521979215366059</v>
+      </c>
+      <c r="J62">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" t="e">
+        <v>7.9419470789988029</v>
+      </c>
+      <c r="K62">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L62" t="e">
+        <v>9.5447612540373168</v>
+      </c>
+      <c r="L62">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" t="e">
+        <v>10.716300914360787</v>
+      </c>
+      <c r="M62">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N62" t="e">
+        <v>11.806387845278373</v>
+      </c>
+      <c r="N62">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N54</f>
-        <v>#DIV/0!</v>
+        <v>12.554448941887081</v>
       </c>
     </row>
     <row r="63" spans="3:14">
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D63" t="e">
+      <c r="D63">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E63" t="e">
+        <v>0.61500136582266451</v>
+      </c>
+      <c r="E63">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" t="e">
+        <v>0.79276432830935195</v>
+      </c>
+      <c r="F63">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G63" t="e">
+        <v>1.5667092005956738</v>
+      </c>
+      <c r="G63">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" t="e">
+        <v>2.7885637434782082</v>
+      </c>
+      <c r="H63">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" t="e">
+        <v>3.5177805765041779</v>
+      </c>
+      <c r="I63">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J63" t="e">
+        <v>5.3390702370291523</v>
+      </c>
+      <c r="J63">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" t="e">
+        <v>8.2725580279678983</v>
+      </c>
+      <c r="K63">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L63" t="e">
+        <v>10.949807706264973</v>
+      </c>
+      <c r="L63">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" t="e">
+        <v>12.994047488633367</v>
+      </c>
+      <c r="M63">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N63" t="e">
+        <v>13.887668958486284</v>
+      </c>
+      <c r="N63">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N55</f>
-        <v>#DIV/0!</v>
+        <v>15.004781515265481</v>
       </c>
     </row>
     <row r="64" spans="3:14">
       <c r="C64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D64" t="e">
+      <c r="D64">
         <f>'OMP - exec time'!D$7/'OMP - exec time'!D56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64" t="e">
+        <v>0.44103187980818914</v>
+      </c>
+      <c r="E64">
         <f>'OMP - exec time'!E$7/'OMP - exec time'!E56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" t="e">
+        <v>0.77001621028552802</v>
+      </c>
+      <c r="F64">
         <f>'OMP - exec time'!F$7/'OMP - exec time'!F56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" t="e">
+        <v>1.337680024080637</v>
+      </c>
+      <c r="G64">
         <f>'OMP - exec time'!G$7/'OMP - exec time'!G56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" t="e">
+        <v>2.352504278417253</v>
+      </c>
+      <c r="H64">
         <f>'OMP - exec time'!H$7/'OMP - exec time'!H56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" t="e">
+        <v>3.6800559338380032</v>
+      </c>
+      <c r="I64">
         <f>'OMP - exec time'!I$7/'OMP - exec time'!I56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64" t="e">
+        <v>5.5222557635313754</v>
+      </c>
+      <c r="J64">
         <f>'OMP - exec time'!J$7/'OMP - exec time'!J56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" t="e">
+        <v>7.3553947147910534</v>
+      </c>
+      <c r="K64">
         <f>'OMP - exec time'!K$7/'OMP - exec time'!K56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L64" t="e">
+        <v>11.237555677630542</v>
+      </c>
+      <c r="L64">
         <f>'OMP - exec time'!L$7/'OMP - exec time'!L56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" t="e">
+        <v>13.358846061448604</v>
+      </c>
+      <c r="M64">
         <f>'OMP - exec time'!M$7/'OMP - exec time'!M56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N64" t="e">
+        <v>14.456951231859602</v>
+      </c>
+      <c r="N64">
         <f>'OMP - exec time'!N$7/'OMP - exec time'!N56</f>
-        <v>#DIV/0!</v>
+        <v>15.214810074625898</v>
       </c>
     </row>
   </sheetData>
@@ -14412,7 +14889,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -14424,10 +14900,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:N75"/>
+  <dimension ref="C5:AB75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14438,36 +14914,36 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:14">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="3:14">
       <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="1"/>
@@ -14946,7 +15422,7 @@
         <v>4090042500</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:28">
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
@@ -14995,39 +15471,39 @@
         <v>4342766980</v>
       </c>
     </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="3:28">
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="3:14">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:28">
       <c r="C23" s="1"/>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="3:14">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:28">
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>1</v>
@@ -15063,7 +15539,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:28">
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
@@ -15101,39 +15577,67 @@
         <v>864353326</v>
       </c>
     </row>
-    <row r="28" spans="3:14">
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="3:28">
+      <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="3:14">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="Q28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="3:28">
       <c r="C29" s="1"/>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="3:14">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="3:28">
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>1</v>
@@ -15168,8 +15672,42 @@
       <c r="N30" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="31" spans="3:14">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>2</v>
+      </c>
+      <c r="T30" s="1">
+        <v>4</v>
+      </c>
+      <c r="U30" s="1">
+        <v>8</v>
+      </c>
+      <c r="V30" s="1">
+        <v>16</v>
+      </c>
+      <c r="W30" s="1">
+        <v>32</v>
+      </c>
+      <c r="X30" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>128</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>256</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>512</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28">
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
@@ -15203,50 +15741,148 @@
       <c r="M31">
         <v>5292442029</v>
       </c>
-    </row>
-    <row r="32" spans="3:14">
+      <c r="N31" s="6"/>
+      <c r="Q31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28">
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="3:14">
+      <c r="D32">
+        <v>56324596</v>
+      </c>
+      <c r="E32">
+        <v>71004386</v>
+      </c>
+      <c r="F32">
+        <v>100887837</v>
+      </c>
+      <c r="G32">
+        <v>160780861</v>
+      </c>
+      <c r="H32">
+        <v>261463247</v>
+      </c>
+      <c r="I32">
+        <v>455789555</v>
+      </c>
+      <c r="J32">
+        <v>820393573</v>
+      </c>
+      <c r="K32">
+        <v>1521078696</v>
+      </c>
+      <c r="L32">
+        <v>2783699510</v>
+      </c>
+      <c r="M32">
+        <v>5313858256</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="Q32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28">
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="3:14">
-      <c r="C36" s="2" t="s">
+      <c r="D33">
+        <v>49593664</v>
+      </c>
+      <c r="E33">
+        <v>57581791</v>
+      </c>
+      <c r="F33">
+        <v>73249133</v>
+      </c>
+      <c r="G33">
+        <v>103362075</v>
+      </c>
+      <c r="H33">
+        <v>162411821</v>
+      </c>
+      <c r="I33">
+        <v>266777265</v>
+      </c>
+      <c r="J33">
+        <v>464891053</v>
+      </c>
+      <c r="K33">
+        <v>820734565</v>
+      </c>
+      <c r="L33">
+        <v>1510315860</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="Q33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28">
+      <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="3:14">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="Q36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="3:28">
       <c r="C37" s="1"/>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="3:14">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="3:28">
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <v>1</v>
@@ -15281,8 +15917,42 @@
       <c r="N38" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="39" spans="3:14">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2</v>
+      </c>
+      <c r="T38" s="1">
+        <v>4</v>
+      </c>
+      <c r="U38" s="1">
+        <v>8</v>
+      </c>
+      <c r="V38" s="1">
+        <v>16</v>
+      </c>
+      <c r="W38" s="1">
+        <v>32</v>
+      </c>
+      <c r="X38" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>128</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>256</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>512</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="39" spans="3:28">
       <c r="C39" s="1" t="s">
         <v>0</v>
       </c>
@@ -15319,8 +15989,44 @@
       <c r="N39">
         <v>829154598</v>
       </c>
-    </row>
-    <row r="40" spans="3:14">
+      <c r="Q39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" t="s">
+        <v>49</v>
+      </c>
+      <c r="W39" t="s">
+        <v>53</v>
+      </c>
+      <c r="X39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="3:28">
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
@@ -15357,8 +16063,44 @@
       <c r="N40">
         <v>478078049</v>
       </c>
-    </row>
-    <row r="41" spans="3:14">
+      <c r="Q40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" t="s">
+        <v>46</v>
+      </c>
+      <c r="V40" t="s">
+        <v>50</v>
+      </c>
+      <c r="W40" t="s">
+        <v>54</v>
+      </c>
+      <c r="X40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="3:28">
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
@@ -15395,8 +16137,44 @@
       <c r="N41">
         <v>356033920</v>
       </c>
-    </row>
-    <row r="42" spans="3:14">
+      <c r="Q41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T41" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" t="s">
+        <v>47</v>
+      </c>
+      <c r="V41" t="s">
+        <v>51</v>
+      </c>
+      <c r="W41" t="s">
+        <v>55</v>
+      </c>
+      <c r="X41" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="3:28">
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
@@ -15433,40 +16211,104 @@
       <c r="N42">
         <v>217960258</v>
       </c>
-    </row>
-    <row r="45" spans="3:14">
-      <c r="C45" s="2" t="s">
+      <c r="Q42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s">
+        <v>44</v>
+      </c>
+      <c r="U42" t="s">
+        <v>48</v>
+      </c>
+      <c r="V42" t="s">
+        <v>52</v>
+      </c>
+      <c r="W42" t="s">
+        <v>56</v>
+      </c>
+      <c r="X42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="3:28">
+      <c r="C45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="3:14">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="Q45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="3:28">
       <c r="C46" s="1"/>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="3:14">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="3:28">
       <c r="C47" s="1"/>
       <c r="D47" s="1">
         <v>1</v>
@@ -15501,8 +16343,42 @@
       <c r="N47" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="48" spans="3:14">
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
+        <v>2</v>
+      </c>
+      <c r="T47" s="1">
+        <v>4</v>
+      </c>
+      <c r="U47" s="1">
+        <v>8</v>
+      </c>
+      <c r="V47" s="1">
+        <v>16</v>
+      </c>
+      <c r="W47" s="1">
+        <v>32</v>
+      </c>
+      <c r="X47" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>128</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>256</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>512</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="48" spans="3:28">
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
@@ -15539,8 +16415,11 @@
       <c r="N48">
         <v>1698328957</v>
       </c>
-    </row>
-    <row r="49" spans="3:14">
+      <c r="Q48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28">
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
@@ -15577,8 +16456,11 @@
       <c r="N49">
         <v>772000269</v>
       </c>
-    </row>
-    <row r="50" spans="3:14">
+      <c r="Q49" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28">
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
@@ -15615,8 +16497,11 @@
       <c r="N50">
         <v>467365052</v>
       </c>
-    </row>
-    <row r="51" spans="3:14">
+      <c r="Q50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28">
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
@@ -15653,8 +16538,11 @@
       <c r="N51">
         <v>536877316</v>
       </c>
-    </row>
-    <row r="52" spans="3:14">
+      <c r="Q51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28">
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
@@ -15691,40 +16579,71 @@
       <c r="N52">
         <v>328116737</v>
       </c>
-    </row>
-    <row r="55" spans="3:14">
-      <c r="C55" s="2" t="s">
+      <c r="Q52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28">
+      <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="3:14">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="Q55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28">
       <c r="C56" s="1"/>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="3:14">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28">
       <c r="C57" s="1"/>
       <c r="D57" s="1">
         <v>1</v>
@@ -15759,8 +16678,42 @@
       <c r="N57" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="58" spans="3:14">
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>2</v>
+      </c>
+      <c r="T57" s="1">
+        <v>4</v>
+      </c>
+      <c r="U57" s="1">
+        <v>8</v>
+      </c>
+      <c r="V57" s="1">
+        <v>16</v>
+      </c>
+      <c r="W57" s="1">
+        <v>32</v>
+      </c>
+      <c r="X57" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>128</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>256</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>512</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28">
       <c r="C58" s="1" t="s">
         <v>0</v>
       </c>
@@ -15797,8 +16750,11 @@
       <c r="N58">
         <v>1607107000</v>
       </c>
-    </row>
-    <row r="59" spans="3:14">
+      <c r="Q58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28">
       <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
@@ -15835,8 +16791,11 @@
       <c r="N59">
         <v>882972848</v>
       </c>
-    </row>
-    <row r="60" spans="3:14">
+      <c r="Q59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28">
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
@@ -15873,8 +16832,11 @@
       <c r="N60">
         <v>389143044</v>
       </c>
-    </row>
-    <row r="61" spans="3:14">
+      <c r="Q60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28">
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
@@ -15911,8 +16873,11 @@
       <c r="N61">
         <v>327265900</v>
       </c>
-    </row>
-    <row r="62" spans="3:14">
+      <c r="Q61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28">
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
@@ -15949,8 +16914,11 @@
       <c r="N62">
         <v>288467227</v>
       </c>
-    </row>
-    <row r="63" spans="3:14">
+      <c r="Q62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28">
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
@@ -15987,40 +16955,71 @@
       <c r="N63">
         <v>353857828</v>
       </c>
-    </row>
-    <row r="66" spans="3:14">
-      <c r="C66" s="2" t="s">
+      <c r="Q63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:28">
+      <c r="C66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="3:14">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="Q66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+    </row>
+    <row r="67" spans="3:28">
       <c r="C67" s="1"/>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="3:14">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="3:28">
       <c r="C68" s="1"/>
       <c r="D68" s="1">
         <v>1</v>
@@ -16055,8 +17054,42 @@
       <c r="N68" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="69" spans="3:14">
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1">
+        <v>1</v>
+      </c>
+      <c r="S68" s="1">
+        <v>2</v>
+      </c>
+      <c r="T68" s="1">
+        <v>4</v>
+      </c>
+      <c r="U68" s="1">
+        <v>8</v>
+      </c>
+      <c r="V68" s="1">
+        <v>16</v>
+      </c>
+      <c r="W68" s="1">
+        <v>32</v>
+      </c>
+      <c r="X68" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>128</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>256</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>512</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="69" spans="3:28">
       <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
@@ -16093,8 +17126,11 @@
       <c r="N69">
         <v>4453769984</v>
       </c>
-    </row>
-    <row r="70" spans="3:14">
+      <c r="Q69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:28">
       <c r="C70" s="1" t="s">
         <v>1</v>
       </c>
@@ -16128,34 +17164,67 @@
       <c r="M70">
         <v>1598567886</v>
       </c>
-    </row>
-    <row r="71" spans="3:14">
+      <c r="Q70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:28">
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="3:14">
+      <c r="Q71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:28">
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="3:14">
+      <c r="Q72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:28">
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="3:14">
+      <c r="Q73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="3:28">
       <c r="C74" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="3:14">
+      <c r="Q74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="3:28">
       <c r="C75" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="Q75" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="24">
+    <mergeCell ref="R46:AB46"/>
+    <mergeCell ref="Q55:AB55"/>
+    <mergeCell ref="R56:AB56"/>
+    <mergeCell ref="Q66:AB66"/>
+    <mergeCell ref="R67:AB67"/>
+    <mergeCell ref="Q28:AB28"/>
+    <mergeCell ref="R29:AB29"/>
+    <mergeCell ref="Q36:AB36"/>
+    <mergeCell ref="R37:AB37"/>
+    <mergeCell ref="Q45:AB45"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="D23:N23"/>
+    <mergeCell ref="C28:N28"/>
     <mergeCell ref="C55:N55"/>
     <mergeCell ref="D56:N56"/>
     <mergeCell ref="C66:N66"/>
@@ -16165,11 +17234,6 @@
     <mergeCell ref="D37:N37"/>
     <mergeCell ref="C45:N45"/>
     <mergeCell ref="D46:N46"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="C22:N22"/>
-    <mergeCell ref="D23:N23"/>
-    <mergeCell ref="C28:N28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16185,7 +17249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
@@ -16195,37 +17259,37 @@
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="5"/>
@@ -16322,37 +17386,37 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="5"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5"/>
@@ -16446,45 +17510,45 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="e">
+      <c r="D14">
         <f>('OMP - exec time'!D$7*20)/'scheduler - exec time'!D32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" t="e">
+        <v>0.72588785190753968</v>
+      </c>
+      <c r="E14">
         <f>('OMP - exec time'!E$7*20)/'scheduler - exec time'!E32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" t="e">
+        <v>0.89431489485734017</v>
+      </c>
+      <c r="F14">
         <f>('OMP - exec time'!F$7*20)/'scheduler - exec time'!F32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" t="e">
+        <v>1.2501088709038335</v>
+      </c>
+      <c r="G14">
         <f>('OMP - exec time'!G$7*20)/'scheduler - exec time'!G32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" t="e">
+        <v>1.3414543165059927</v>
+      </c>
+      <c r="H14">
         <f>('OMP - exec time'!H$7*20)/'scheduler - exec time'!H32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" t="e">
+        <v>1.5011471956515556</v>
+      </c>
+      <c r="I14">
         <f>('OMP - exec time'!I$7*20)/'scheduler - exec time'!I32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" t="e">
+        <v>1.5851149112006306</v>
+      </c>
+      <c r="J14">
         <f>('OMP - exec time'!J$7*20)/'scheduler - exec time'!J32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" t="e">
+        <v>1.7504678330774783</v>
+      </c>
+      <c r="K14">
         <f>('OMP - exec time'!K$7*20)/'scheduler - exec time'!K32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" t="e">
+        <v>1.9142908960970682</v>
+      </c>
+      <c r="L14">
         <f>('OMP - exec time'!L$7*20)/'scheduler - exec time'!L32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>2.1518358351832307</v>
+      </c>
+      <c r="M14">
         <f>('OMP - exec time'!M$7*20)/'scheduler - exec time'!M32</f>
-        <v>#DIV/0!</v>
+        <v>2.2571292725878083</v>
       </c>
       <c r="N14" t="e">
         <f>('OMP - exec time'!N$7*20)/'scheduler - exec time'!N32</f>
@@ -16496,41 +17560,41 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="e">
+      <c r="D15">
         <f>('OMP - exec time'!D$7*20)/'scheduler - exec time'!D33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" t="e">
+        <v>0.8244065209620326</v>
+      </c>
+      <c r="E15">
         <f>('OMP - exec time'!E$7*20)/'scheduler - exec time'!E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" t="e">
+        <v>1.1027840380998222</v>
+      </c>
+      <c r="F15">
         <f>('OMP - exec time'!F$7*20)/'scheduler - exec time'!F33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" t="e">
+        <v>1.7218057720901625</v>
+      </c>
+      <c r="G15">
         <f>('OMP - exec time'!G$7*20)/'scheduler - exec time'!G33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" t="e">
+        <v>2.0866471575768966</v>
+      </c>
+      <c r="H15">
         <f>('OMP - exec time'!H$7*20)/'scheduler - exec time'!H33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" t="e">
+        <v>2.4166641170780299</v>
+      </c>
+      <c r="I15">
         <f>('OMP - exec time'!I$7*20)/'scheduler - exec time'!I33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" t="e">
+        <v>2.708172377432537</v>
+      </c>
+      <c r="J15">
         <f>('OMP - exec time'!J$7*20)/'scheduler - exec time'!J33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" t="e">
+        <v>3.0890518342584667</v>
+      </c>
+      <c r="K15">
         <f>('OMP - exec time'!K$7*20)/'scheduler - exec time'!K33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" t="e">
+        <v>3.5477817362303976</v>
+      </c>
+      <c r="L15">
         <f>('OMP - exec time'!L$7*20)/'scheduler - exec time'!L33</f>
-        <v>#DIV/0!</v>
+        <v>3.9661004155779707</v>
       </c>
       <c r="M15" t="e">
         <f>('OMP - exec time'!M$7*20)/'scheduler - exec time'!M33</f>
@@ -16549,37 +17613,37 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="5"/>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="5"/>
@@ -16826,37 +17890,37 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="5"/>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="5"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="5"/>
@@ -17153,37 +18217,37 @@
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="5"/>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="5"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="5"/>
@@ -17530,37 +18594,37 @@
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="5"/>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="5"/>

--- a/medicoes_affinity.xlsx
+++ b/medicoes_affinity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OMP - exec time" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="48">
   <si>
     <t>1 thread</t>
   </si>
@@ -149,6 +149,24 @@
   <si>
     <t>1024 seed</t>
   </si>
+  <si>
+    <t>2 processes</t>
+  </si>
+  <si>
+    <t>4 processes</t>
+  </si>
+  <si>
+    <t>5 processes</t>
+  </si>
+  <si>
+    <t>8 processes</t>
+  </si>
+  <si>
+    <t>10 processes</t>
+  </si>
+  <si>
+    <t>512 vars</t>
+  </si>
 </sst>
 </file>
 
@@ -242,8 +260,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,7 +411,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -443,6 +471,11 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -502,6 +535,11 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5175,6 +5213,587 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2081051192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="12700" cmpd="sng"/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.820859969700937"/>
+          <c:y val="0.108520206903962"/>
+          <c:w val="0.179140030299063"/>
+          <c:h val="0.782959586192077"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0901114706267417"/>
+          <c:y val="0.0272904483430799"/>
+          <c:w val="0.709370826865169"/>
+          <c:h val="0.858297800494236"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scheduler - speedup'!$C$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$114:$J$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$115:$J$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.84182770276155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.57874201654905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.98711514673228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.58576111995723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.49735748715534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.45388829072094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scheduler - speedup'!$C$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$114:$J$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$116:$J$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.991545210939264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.27291853937124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.10537164364584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.53198181183507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.65084415460142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.25564727959633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scheduler - speedup'!$C$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$114:$J$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$117:$J$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.724904689108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.37466117848414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.36709259607169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.88817769538646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.73151892835153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scheduler - speedup'!$C$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$114:$J$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$118:$J$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22.31703056790497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.68657692286173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.16153531633612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.60553086496586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scheduler - speedup'!$C$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 processes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng"/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$114:$J$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scheduler - speedup'!$D$119:$J$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.77921223410677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.22434272968897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.89963330141389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2102566232"/>
+        <c:axId val="2093607688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2102566232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.347087175266987"/>
+              <c:y val="0.941520467836257"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2093607688"/>
+        <c:crossesAt val="0.5"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2093607688"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00237529691211401"/>
+              <c:y val="0.34868137096898"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102566232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11880,6 +12499,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13317,6 +13966,283 @@
 </file>
 
 <file path=xl/theme/themeOverride13.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="100000"/>
+              <a:shade val="100000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:shade val="100000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride14.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
     <a:dk1>
@@ -18048,7 +18974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="O37" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -21590,10 +22516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:AC76"/>
+  <dimension ref="C5:AC84"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I56" workbookViewId="0">
+      <selection activeCell="T90" sqref="T90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21601,6 +22527,8 @@
     <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22011,6 +22939,9 @@
       <c r="Q31" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA31">
+        <v>5527045292</v>
+      </c>
     </row>
     <row r="32" spans="3:28">
       <c r="C32" s="1" t="s">
@@ -23740,6 +24671,9 @@
       <c r="Q69" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA69">
+        <v>1012855897</v>
+      </c>
     </row>
     <row r="70" spans="3:28">
       <c r="C70" s="1" t="s">
@@ -23778,6 +24712,9 @@
       <c r="Q70" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AA70">
+        <v>883297216</v>
+      </c>
     </row>
     <row r="71" spans="3:28">
       <c r="C71" s="1" t="s">
@@ -23816,6 +24753,9 @@
       <c r="Q71" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AA71">
+        <v>666814268</v>
+      </c>
     </row>
     <row r="72" spans="3:28">
       <c r="C72" s="1" t="s">
@@ -23854,6 +24794,9 @@
       <c r="Q72" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AA72">
+        <v>723154333</v>
+      </c>
     </row>
     <row r="73" spans="3:28">
       <c r="C73" s="1" t="s">
@@ -23892,6 +24835,9 @@
       <c r="Q73" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AA73">
+        <v>827327672</v>
+      </c>
     </row>
     <row r="74" spans="3:28">
       <c r="C74" s="1" t="s">
@@ -23930,6 +24876,9 @@
       <c r="Q74" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AA74">
+        <v>891494322</v>
+      </c>
     </row>
     <row r="75" spans="3:28">
       <c r="C75" s="1" t="s">
@@ -24002,6 +24951,147 @@
       </c>
       <c r="M76">
         <v>914084140</v>
+      </c>
+    </row>
+    <row r="78" spans="3:28">
+      <c r="T78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="3:28">
+      <c r="R79" s="1">
+        <v>1</v>
+      </c>
+      <c r="S79" s="1">
+        <v>2</v>
+      </c>
+      <c r="T79" s="1">
+        <v>4</v>
+      </c>
+      <c r="U79" s="1">
+        <v>5</v>
+      </c>
+      <c r="V79" s="1">
+        <v>8</v>
+      </c>
+      <c r="W79" s="1">
+        <v>10</v>
+      </c>
+      <c r="X79" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="3:28">
+      <c r="Q80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R80">
+        <f>AA69</f>
+        <v>1012855897</v>
+      </c>
+      <c r="S80">
+        <f>AA70</f>
+        <v>883297216</v>
+      </c>
+      <c r="T80">
+        <f>AA71</f>
+        <v>666814268</v>
+      </c>
+      <c r="U80">
+        <f>AA72</f>
+        <v>723154333</v>
+      </c>
+      <c r="V80">
+        <f>AA73</f>
+        <v>827327672</v>
+      </c>
+      <c r="W80">
+        <f>AA74</f>
+        <v>891494322</v>
+      </c>
+      <c r="X80">
+        <f>AA75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="17:23">
+      <c r="Q81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R81">
+        <f>AA58</f>
+        <v>1200421433</v>
+      </c>
+      <c r="S81">
+        <f>AA59</f>
+        <v>785315851</v>
+      </c>
+      <c r="T81">
+        <f>AA60</f>
+        <v>459448162</v>
+      </c>
+      <c r="U81">
+        <f>AA61</f>
+        <v>406138169</v>
+      </c>
+      <c r="V81">
+        <f>AA62</f>
+        <v>327252081</v>
+      </c>
+      <c r="W81">
+        <f>AA63</f>
+        <v>360662504</v>
+      </c>
+    </row>
+    <row r="82" spans="17:23">
+      <c r="Q82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R82">
+        <v>942566197</v>
+      </c>
+      <c r="S82">
+        <v>619059343</v>
+      </c>
+      <c r="T82">
+        <v>422816155</v>
+      </c>
+      <c r="U82">
+        <v>415189395</v>
+      </c>
+      <c r="V82">
+        <v>432506602</v>
+      </c>
+    </row>
+    <row r="83" spans="17:23">
+      <c r="Q83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R83">
+        <v>537440005</v>
+      </c>
+      <c r="S83">
+        <v>356048792</v>
+      </c>
+      <c r="T83">
+        <v>234435205</v>
+      </c>
+      <c r="U83">
+        <v>215699137</v>
+      </c>
+    </row>
+    <row r="84" spans="17:23">
+      <c r="Q84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R84">
+        <v>447887149</v>
+      </c>
+      <c r="S84">
+        <v>284055695</v>
+      </c>
+      <c r="T84">
+        <v>207152694</v>
       </c>
     </row>
   </sheetData>
@@ -24032,6 +25122,7 @@
     <mergeCell ref="R67:AB67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -24042,10 +25133,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N108"/>
+  <dimension ref="B4:N119"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="X95" sqref="X95"/>
+    <sheetView showRuler="0" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114:J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25235,9 +26326,9 @@
         <f>'scheduler - exec time'!L$8/'scheduler - exec time'!Z69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M51" t="e">
+      <c r="M51">
         <f>'scheduler - exec time'!M$8/'scheduler - exec time'!AA69</f>
-        <v>#DIV/0!</v>
+        <v>11.841827702761551</v>
       </c>
     </row>
     <row r="52" spans="2:14">
@@ -25281,9 +26372,9 @@
         <f>'scheduler - exec time'!L$8/'scheduler - exec time'!Z70</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" t="e">
+      <c r="M52">
         <f>'scheduler - exec time'!M$8/'scheduler - exec time'!AA70</f>
-        <v>#DIV/0!</v>
+        <v>13.578742016549048</v>
       </c>
     </row>
     <row r="53" spans="2:14">
@@ -25327,9 +26418,9 @@
         <f>'scheduler - exec time'!L$8/'scheduler - exec time'!Z71</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M53" t="e">
+      <c r="M53">
         <f>'scheduler - exec time'!M$8/'scheduler - exec time'!AA71</f>
-        <v>#DIV/0!</v>
+        <v>17.987115146732283</v>
       </c>
     </row>
     <row r="54" spans="2:14">
@@ -25373,9 +26464,9 @@
         <f>'scheduler - exec time'!L$8/'scheduler - exec time'!Z72</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M54" t="e">
+      <c r="M54">
         <f>'scheduler - exec time'!M$8/'scheduler - exec time'!AA72</f>
-        <v>#DIV/0!</v>
+        <v>16.585761119957226</v>
       </c>
     </row>
     <row r="55" spans="2:14">
@@ -25419,9 +26510,9 @@
         <f>'scheduler - exec time'!L$8/'scheduler - exec time'!Z73</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M55" t="e">
+      <c r="M55">
         <f>'scheduler - exec time'!M$8/'scheduler - exec time'!AA73</f>
-        <v>#DIV/0!</v>
+        <v>14.497357487155343</v>
       </c>
     </row>
     <row r="56" spans="2:14">
@@ -25465,9 +26556,9 @@
         <f>'scheduler - exec time'!L$8/'scheduler - exec time'!Z74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" t="e">
+      <c r="M56">
         <f>'scheduler - exec time'!M$8/'scheduler - exec time'!AA74</f>
-        <v>#DIV/0!</v>
+        <v>13.453888290720936</v>
       </c>
     </row>
     <row r="57" spans="2:14">
@@ -25626,7 +26717,7 @@
       </c>
       <c r="M64" s="5">
         <f>'scheduler - exec time'!AA31/'scheduler - exec time'!M31</f>
-        <v>0</v>
+        <v>1.0443279797330776</v>
       </c>
       <c r="N64" s="7" t="e">
         <f>'scheduler - exec time'!AB31/'scheduler - exec time'!N31</f>
@@ -26780,7 +27871,7 @@
       </c>
       <c r="M102" s="5">
         <f>'scheduler - exec time'!AA69/'scheduler - exec time'!M69</f>
-        <v>0</v>
+        <v>0.36021596065332101</v>
       </c>
       <c r="N102" s="7">
         <f>'scheduler - exec time'!AB69/'scheduler - exec time'!N69</f>
@@ -26829,7 +27920,7 @@
       </c>
       <c r="M103" s="5">
         <f>'scheduler - exec time'!AA70/'scheduler - exec time'!M70</f>
-        <v>0</v>
+        <v>0.55255533639564181</v>
       </c>
       <c r="N103" s="7" t="e">
         <f>'scheduler - exec time'!AB70/'scheduler - exec time'!N70</f>
@@ -26878,7 +27969,7 @@
       </c>
       <c r="M104" s="5">
         <f>'scheduler - exec time'!AA71/'scheduler - exec time'!M71</f>
-        <v>0</v>
+        <v>0.81474036312411147</v>
       </c>
       <c r="N104" s="7" t="e">
         <f>'scheduler - exec time'!AB71/'scheduler - exec time'!N71</f>
@@ -26927,7 +28018,7 @@
       </c>
       <c r="M105" s="5">
         <f>'scheduler - exec time'!AA72/'scheduler - exec time'!M72</f>
-        <v>0</v>
+        <v>0.95185711416047891</v>
       </c>
       <c r="N105" s="7" t="e">
         <f>'scheduler - exec time'!AB72/'scheduler - exec time'!N72</f>
@@ -26976,7 +28067,7 @@
       </c>
       <c r="M106" s="5">
         <f>'scheduler - exec time'!AA73/'scheduler - exec time'!M73</f>
-        <v>0</v>
+        <v>1.7263906349614513</v>
       </c>
       <c r="N106" s="7" t="e">
         <f>'scheduler - exec time'!AB73/'scheduler - exec time'!N73</f>
@@ -27025,7 +28116,7 @@
       </c>
       <c r="M107" s="5">
         <f>'scheduler - exec time'!AA74/'scheduler - exec time'!M74</f>
-        <v>0</v>
+        <v>0.80621882365187081</v>
       </c>
       <c r="N107" s="7" t="e">
         <f>'scheduler - exec time'!AB74/'scheduler - exec time'!N74</f>
@@ -27078,6 +28169,199 @@
       </c>
       <c r="N108" s="7" t="e">
         <f>'scheduler - exec time'!AB75/'scheduler - exec time'!N75</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10">
+      <c r="F113" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10">
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>4</v>
+      </c>
+      <c r="G114" s="1">
+        <v>5</v>
+      </c>
+      <c r="H114" s="1">
+        <v>8</v>
+      </c>
+      <c r="I114" s="1">
+        <v>10</v>
+      </c>
+      <c r="J114" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10">
+      <c r="C115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!R80</f>
+        <v>11.841827702761551</v>
+      </c>
+      <c r="E115">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!S80</f>
+        <v>13.578742016549048</v>
+      </c>
+      <c r="F115">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!T80</f>
+        <v>17.987115146732283</v>
+      </c>
+      <c r="G115">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!U80</f>
+        <v>16.585761119957226</v>
+      </c>
+      <c r="H115">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!V80</f>
+        <v>14.497357487155343</v>
+      </c>
+      <c r="I115">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!W80</f>
+        <v>13.453888290720936</v>
+      </c>
+      <c r="J115" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!X80</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10">
+      <c r="C116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!R81</f>
+        <v>9.9915452109392646</v>
+      </c>
+      <c r="E116">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!S81</f>
+        <v>15.272918539371236</v>
+      </c>
+      <c r="F116">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!T81</f>
+        <v>26.105371643645839</v>
+      </c>
+      <c r="G116">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!U81</f>
+        <v>29.531981811835074</v>
+      </c>
+      <c r="H116">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!V81</f>
+        <v>36.650844154601415</v>
+      </c>
+      <c r="I116">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!W81</f>
+        <v>33.255647279596332</v>
+      </c>
+      <c r="J116" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!X81</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10">
+      <c r="C117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!R82</f>
+        <v>12.724904689108005</v>
+      </c>
+      <c r="E117">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!S82</f>
+        <v>19.374661178484143</v>
+      </c>
+      <c r="F117">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!T82</f>
+        <v>28.367092596071689</v>
+      </c>
+      <c r="G117">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!U82</f>
+        <v>28.888177695386464</v>
+      </c>
+      <c r="H117">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!V82</f>
+        <v>27.731518928351527</v>
+      </c>
+      <c r="I117" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!W82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J117" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!X82</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10">
+      <c r="C118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!R83</f>
+        <v>22.317030567904972</v>
+      </c>
+      <c r="E118">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!S83</f>
+        <v>33.68657692286174</v>
+      </c>
+      <c r="F118">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!T83</f>
+        <v>51.161535316336128</v>
+      </c>
+      <c r="G118">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!U83</f>
+        <v>55.605530864965864</v>
+      </c>
+      <c r="H118" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!V83</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I118" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!W83</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J118" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!X83</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10">
+      <c r="C119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!R84</f>
+        <v>26.779212234106765</v>
+      </c>
+      <c r="E119">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!S84</f>
+        <v>42.224342729688978</v>
+      </c>
+      <c r="F119">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!T84</f>
+        <v>57.899633301413886</v>
+      </c>
+      <c r="G119" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!U84</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H119" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!V84</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I119" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!W84</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J119" t="e">
+        <f>'scheduler - exec time'!$M$8/'scheduler - exec time'!X84</f>
         <v>#DIV/0!</v>
       </c>
     </row>
